--- a/Casino/bin/Debug/net6.0-windows/Resources/GameQuestions.xlsx
+++ b/Casino/bin/Debug/net6.0-windows/Resources/GameQuestions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psameh.priv\source\repos\Casino\Casino\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CasinoGame\Casino\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247D2B9-760F-482B-BA43-BEB13BD7EF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C43CA8-1193-482D-BEFF-F02DAA9A2D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10170" yWindow="1875" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -42,15 +42,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Flags</t>
-  </si>
-  <si>
-    <t>ReversedWords</t>
-  </si>
-  <si>
-    <t>Trivia</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -81,18 +72,12 @@
     <t>Beijing</t>
   </si>
   <si>
-    <t>SongInScene</t>
-  </si>
-  <si>
     <t>ايه الأغنية اللي اشتغلت في المشهد ده</t>
   </si>
   <si>
     <t>الحلو في الفرندة</t>
   </si>
   <si>
-    <t>Song</t>
-  </si>
-  <si>
     <t>3 اغاني لتامر حسني</t>
   </si>
   <si>
@@ -121,6 +106,12 @@
   </si>
   <si>
     <t>احمد حلمي - كدة رضا</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Resources/Flags/Afghanistan.gif</t>
   </si>
 </sst>
 </file>
@@ -438,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,187 +464,204 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8">
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
